--- a/SCH-STH/Impact assessments/Benin/2024/Oct 2024/bj_sch_sth_impact_2410_4_urine_filtration_v1.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/Oct 2024/bj_sch_sth_impact_2410_4_urine_filtration_v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TFGH-WHO\BENIN\SCH STH Janv 2024\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\Oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F60907-2DB7-4A90-A228-92A9F6B6D2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="3120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -248,9 +249,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>bj_u2</t>
-  </si>
-  <si>
     <t>join(' ', ${u_espen_code_id})</t>
   </si>
   <si>
@@ -281,16 +279,19 @@
     <t>not(selected(${C3}, ${u_espen_code_id}))</t>
   </si>
   <si>
-    <t>(2024 Janvier) - 4. SCH/STH - Urine Filtration V4</t>
-  </si>
-  <si>
-    <t>bj_sch_sth_impact_202401_4_urine_filtration_v4</t>
+    <t>bj_sch_sth_impact_2410_4_urine_filtration_v1</t>
+  </si>
+  <si>
+    <t>(2024 Octobre) - 4. SCH/STH - Urine Filtration V4</t>
+  </si>
+  <si>
+    <t>bj_u_2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -481,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -606,13 +607,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -625,9 +626,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -911,14 +909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1111,7 +1109,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
@@ -1122,10 +1120,10 @@
         <v>71</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="36"/>
@@ -1171,7 +1169,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -1179,13 +1177,13 @@
     </row>
     <row r="11" spans="1:12" s="56" customFormat="1">
       <c r="A11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="54" t="s">
         <v>79</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>80</v>
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="8"/>
@@ -1209,13 +1207,13 @@
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="36" t="s">
@@ -1239,7 +1237,7 @@
       <c r="F13" s="52"/>
       <c r="G13" s="51"/>
       <c r="H13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13" s="50"/>
       <c r="J13" s="50" t="s">
@@ -1267,7 +1265,7 @@
         <v>23</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1293,7 +1291,7 @@
         <v>23</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
@@ -1315,7 +1313,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="46"/>
       <c r="H16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" s="45"/>
       <c r="J16" s="34" t="s">
@@ -1339,7 +1337,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="46"/>
       <c r="H17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="34" t="s">
@@ -1363,7 +1361,7 @@
       <c r="F18" s="34"/>
       <c r="G18" s="46"/>
       <c r="H18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="34"/>
@@ -1372,7 +1370,7 @@
     </row>
     <row r="19" spans="1:12" s="24" customFormat="1">
       <c r="A19" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
@@ -1380,7 +1378,7 @@
       <c r="E19" s="45"/>
       <c r="F19" s="34"/>
       <c r="G19" s="46"/>
-      <c r="H19" s="57"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="45"/>
       <c r="J19" s="34"/>
       <c r="K19" s="45"/>
@@ -1443,7 +1441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1647,11 +1645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1676,7 +1674,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
